--- a/InputFiles/ICDC/TC27_Canine_StudyCOTC022-Diagnosis_Sex_FileType_FileFormat.xlsx
+++ b/InputFiles/ICDC/TC27_Canine_StudyCOTC022-Diagnosis_Sex_FileType_FileFormat.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\epishinavv\git\Commons_Automation\InputFiles\ICDC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57243723-FC5F-4826-B73B-F1878B8321B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C152A849-91EE-48B2-B08E-B94F6EDAD8E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
@@ -60,22 +60,6 @@
     <t>StudyFilesTab</t>
   </si>
   <si>
-    <t>MATCH (p:program)&lt;--(s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic)
-OPTIONAL MATCH (samp:sample)--&gt;(c)
-OPTIONAL MATCH (diag:diagnosis)--&gt;(c)
-OPTIONAL MATCH (f:file)-[*]-&gt;(c)
-OPTIONAL MATCH (sf:file)--&gt;(s)
-WITH DISTINCT f, sf, samp AS samp, c, demo, diag, s, p
-  where s.clinical_study_designation IN ['COTC022'] and diag.disease_term in ['Osteosarcoma'] and demo.sex in ['Female'] and sf.file_type in ['Supplemental Data File'] and sf.file_format in ['xlsx']
-RETURN  
-    count(distinct p) AS Programs,
-    count(distinct s) AS Studies,
-    count(distinct c) AS Cases,
-    count(distinct samp) AS Samples,
-    count(distinct f) AS `Case Files`,
-    count(distinct sf) AS `Study Files`</t>
-  </si>
-  <si>
     <t>TC27_Canine_StudyCOTC022-Diagnosis_Sex_FileType_FileFormat_Neo4jData.xlsx</t>
   </si>
   <si>
@@ -102,30 +86,6 @@
        coalesce(diag.best_response, '') AS `Response to Treatment`,
        coalesce(co.cohort_description, '') AS `Cohort`
 order by c.case_id asc
-limit 100</t>
-  </si>
-  <si>
-    <t>MATCH (s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic)
- MATCH (f:file)--&gt;(parent)
- MATCH (c)&lt;--(diag:diagnosis)
-Where s.clinical_study_designation IN ['COTC022'] and diag.disease_term in ['Osteosarcoma'] and demo.sex in ['Female'] and f.file_type in ['Supplemental Data File'] and f.file_format in ['xlsx']
-MATCH (samp:sample)--&gt;(c)
-MATCH (co:cohort)&lt;-[*]-(c)
- OPTIONAL Match (c)--&gt;(ci:canine_individual)
-WITH DISTINCT samp AS samp, c, demo, diag,ci,s
-RETURN  coalesce(samp.sample_id, '') AS `Sample ID`, 
-        coalesce(c.case_id, '') AS `Case ID`, 
-        coalesce(demo.breed,'') AS Breed,
-        coalesce(diag.disease_term,'') AS Diagnosis, 
-        coalesce(samp.sample_site, '') AS `Sample Site`,
-        coalesce(samp.summarized_sample_type, '') AS `Sample Type`,
-        coalesce(samp.specific_sample_pathology, '') AS `Pathology/Morphology`,
-        coalesce(samp.tumor_grade, '') AS `Tumor Grade`,
-        coalesce(samp.sample_chronology, '') AS `Sample Chronology`,
-        coalesce(samp.percentage_tumor, '') AS `Percentage Tumor`,
-        coalesce(samp.necropsy_sample, '') AS `Necropsy Sample`,
-        coalesce(samp.sample_preservation, '') AS `Sample Preservation`
-order by samp.sample_id asc
 limit 100</t>
   </si>
   <si>
@@ -192,6 +152,48 @@
   coalesce(s.clinical_study_designation,'') AS `Study Code`
   order by 'File Name' asc
   limit 100</t>
+  </si>
+  <si>
+    <t>MATCH (p:program)&lt;--(s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic)
+MATCH (c)&lt;--(diag:diagnosis)
+WHERE s.clinical_study_designation IN ['COTC022'] and diag.disease_term in ['Osteosarcoma'] and demo.sex in ['Female']
+OPTIONAL MATCH (cf:file)--&gt;(c)
+OPTIONAL MATCH (sf:file)--&gt;(s)
+MATCH (f:file)--&gt;(parent)
+MATCH (samp:sample)--&gt;(c)
+WHERE sf.file_type in ['Supplemental Data File'] and sf.file_format in ['xlsx']
+OPTIONAL MATCH (samp:sample)--&gt;(c)
+RETURN
+    count(distinct p) AS Programs,
+    count(distinct s) AS Studies,
+    count(distinct c) AS Cases,
+    count(distinct samp) AS Samples,
+    count(distinct cf) AS `Case Files`,
+    count(distinct sf) AS `Study Files`</t>
+  </si>
+  <si>
+    <t>MATCH (s:study)&lt;-[*]-(c:case)&lt;--(demo:demographic)
+ MATCH (f:file)--&gt;(parent)
+ MATCH (c)&lt;--(diag:diagnosis)
+Where s.clinical_study_designation IN ['COTC022'] and diag.disease_term in ['Osteosarcoma'] and demo.sex in ['Female'] and f.file_type in ['Supplemental Data File'] and f.file_format in ['xlsx']
+MATCH (samp:sample)--&gt;(c)
+Optional MATCH (co:cohort)&lt;-[*]-(c)
+OPTIONAL Match (c)--&gt;(ci:canine_individual)
+WITH DISTINCT samp AS samp, c, demo, diag,ci,s
+RETURN  coalesce(samp.sample_id, '') AS `Sample ID`, 
+        coalesce(c.case_id, '') AS `Case ID`, 
+        coalesce(demo.breed,'') AS Breed,
+        coalesce(diag.disease_term,'') AS Diagnosis, 
+        coalesce(samp.sample_site, '') AS `Sample Site`,
+        coalesce(samp.summarized_sample_type, '') AS `Sample Type`,
+        coalesce(samp.specific_sample_pathology, '') AS `Pathology/Morphology`,
+        coalesce(samp.tumor_grade, '') AS `Tumor Grade`,
+        coalesce(samp.sample_chronology, '') AS `Sample Chronology`,
+        coalesce(samp.percentage_tumor, '') AS `Percentage Tumor`,
+        coalesce(samp.necropsy_sample, '') AS `Necropsy Sample`,
+        coalesce(samp.sample_preservation, '') AS `Sample Preservation`
+order by samp.sample_id asc
+limit 100</t>
   </si>
 </sst>
 </file>
@@ -273,9 +275,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -313,7 +315,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -419,7 +421,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -561,7 +563,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -571,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="18.5" x14ac:dyDescent="0.45"/>
@@ -609,16 +611,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="409.5" x14ac:dyDescent="0.45">
@@ -626,16 +628,16 @@
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="409.5" x14ac:dyDescent="0.45">
@@ -643,16 +645,16 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="409.5" x14ac:dyDescent="0.45">
@@ -660,16 +662,16 @@
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
